--- a/P9_2 Background mortality.xlsx
+++ b/P9_2 Background mortality.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="RR_PSA_10yr" sheetId="6" r:id="rId1"/>
-    <sheet name="RR_PSA_5yr" sheetId="7" r:id="rId2"/>
-    <sheet name="RR_age" sheetId="10" r:id="rId3"/>
-    <sheet name="Source RR" sheetId="9" r:id="rId4"/>
-    <sheet name="Source Mortality" sheetId="5" r:id="rId5"/>
-    <sheet name="mr W" sheetId="3" r:id="rId6"/>
-    <sheet name="mr M" sheetId="4" r:id="rId7"/>
+    <sheet name="RR_PSA_5yr" sheetId="7" r:id="rId1"/>
+    <sheet name="RR_age" sheetId="10" r:id="rId2"/>
+    <sheet name="mr W" sheetId="3" r:id="rId3"/>
+    <sheet name="mr M" sheetId="4" r:id="rId4"/>
+    <sheet name="MetaData" sheetId="11" r:id="rId5"/>
+    <sheet name="Data Dictionary" sheetId="12" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="CINDD_Dem">[1]Parameters!$L$34</definedName>
@@ -138,10 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
-  <si>
-    <t>IRISH DATA - VITAL STATISTICS YEARLY SUMMARY 2016</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Age</t>
   </si>
@@ -164,33 +160,15 @@
     <t>85 and over</t>
   </si>
   <si>
-    <t>Population 2011 to 2016 (Number) by At Each Year of Age, Sex, Age Last</t>
-  </si>
-  <si>
-    <t>Birthday and Census Year</t>
-  </si>
-  <si>
     <t>mr</t>
   </si>
   <si>
     <t>Age Group</t>
   </si>
   <si>
-    <t>CSO</t>
-  </si>
-  <si>
-    <t>2016 Census Population</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>10 yr survival</t>
-  </si>
-  <si>
     <t>30-day  survivors (all years</t>
   </si>
   <si>
@@ -203,59 +181,88 @@
     <t>5 yr survival</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hardie, K., Hankey, G. J., Jamrozik, K., Broadhurst, R. J., &amp; Anderson, C. (2003). Ten-year survival after first-ever stroke in the Perth community stroke study. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stroke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(8), 1842–1846. https://doi.org/10.1161/01.STR.0000082382.42061.EE</t>
-    </r>
-  </si>
-  <si>
-    <t>n = 195.</t>
-  </si>
-  <si>
-    <t>Data collection 1989-1999</t>
-  </si>
-  <si>
-    <t>First-ever stroke</t>
-  </si>
-  <si>
-    <t>All stroke (WHO definition)</t>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>40-69</t>
+  </si>
+  <si>
+    <t>70-89</t>
+  </si>
+  <si>
+    <t>RR_age</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CSO Population Data</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>mr W; mr M</t>
+  </si>
+  <si>
+    <t>Central Statistics Office. Vital Statistics Yearly Summary 2016 [Internet]. Available from: https://www.cso.ie/en/releasesandpublications/ep/p-vsys/vitalstatisticsyearlysummary2016/. On-line ISSN 2009-5333</t>
+  </si>
+  <si>
+    <t>CSO Death Data</t>
+  </si>
+  <si>
+    <t>Men and Women aged 35+</t>
+  </si>
+  <si>
+    <t>Central Statistics Office (Ireland). Population estimates from 1926 (Number) by Sex, Single Year of Age and Year. https://data.cso.ie/table/PEA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total population resident in the Republic of Ireland in mid-April </t>
+  </si>
+  <si>
+    <t>National census</t>
+  </si>
+  <si>
+    <t>Official death registrations</t>
+  </si>
+  <si>
+    <t>Deaths in the Republic of Ireland in 2016</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortality rate = number of deaths/total population </t>
+  </si>
+  <si>
+    <t>PCSS</t>
   </si>
   <si>
     <r>
@@ -275,8 +282,9 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -294,87 +302,96 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(9), 2080–2086. https://doi.org/10.1161/01.STR.31.9.2080</t>
     </r>
   </si>
   <si>
-    <t>n=277</t>
-  </si>
-  <si>
-    <t>Data collection 1989-1994</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>40-69</t>
-  </si>
-  <si>
-    <t>70-89</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Brønnum-hansen, H., Davidsen, M., &amp; Thorvaldsen, P. (2001). Long-Term Survival and Causes of Death After Stroke.pdf (application/pdf Object). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Stroke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. http://stroke.ahajournals.org/content/32/9/2131.full.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>n = 2448 at 1 year</t>
-  </si>
-  <si>
-    <t>SMR corresponds to 1 - 5 years</t>
-  </si>
-  <si>
-    <t>Data collection 1982-1988</t>
-  </si>
-  <si>
-    <t>n=1665 at 5 years (40% of 4162)</t>
-  </si>
-  <si>
-    <t>Statbank.cso.ie</t>
-  </si>
-  <si>
-    <t>RR_PSA_10yr:</t>
-  </si>
-  <si>
-    <t>RR_PSA_5yr:</t>
-  </si>
-  <si>
-    <t>RR_age</t>
+    <t>RR_PSA_5yr</t>
+  </si>
+  <si>
+    <t>WHO definition of stroke</t>
+  </si>
+  <si>
+    <t>1989-1994</t>
+  </si>
+  <si>
+    <t>Men and Women, all ages</t>
+  </si>
+  <si>
+    <t>Lower confirence interval for relative risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample size </t>
+  </si>
+  <si>
+    <t>Upper confidence interval for relative risk</t>
+  </si>
+  <si>
+    <t>Brønnum-hansen H, Davidsen M, Thorvaldsen P. Long-Term Survival and Causes of Death After Stroke. Stroke [Internet]. 2001;32:2131–2136. Available from: http://stroke.ahajournals.org/content/32/9/2131.full.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONICA </t>
+  </si>
+  <si>
+    <t>Residents aged 25+ living in Copenhagen County in Denmark</t>
+  </si>
+  <si>
+    <t>People with first-ever stroke living in the Perth (Australia) geographical area, and general population living in the same area</t>
+  </si>
+  <si>
+    <t>Stroke defined as rapidly developing signs of focal (or global) disturbance of cerebral function lasting &gt;24 hours (unless interrupted by surgery or death), with no apparent nonvascular cause.</t>
+  </si>
+  <si>
+    <t>Multiple overlapping referral sources to identify stroke events, with linkage to official mortality records</t>
+  </si>
+  <si>
+    <t>Standarised neurological assessment at baseline, with linkage to official mortality records</t>
+  </si>
+  <si>
+    <t>1982-1988</t>
+  </si>
+  <si>
+    <t>Men and women aged 25+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative risk of mortality for survivor of stroke relative to the general population </t>
+  </si>
+  <si>
+    <t>Measurement method (relative mortality risk)</t>
+  </si>
+  <si>
+    <t>Number of deaths for 30-day stroke survivors in the 5 years after the index stroke, compared with the expected number of deaths in the same population</t>
+  </si>
+  <si>
+    <t>Number of deaths for 1-year stroke survivors in the 5 years after the index stroke, compared with the expected number of deaths in the same population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -452,12 +469,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -481,44 +522,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
+    <cellStyle name="Comma" xfId="12" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Currency 2" xfId="2"/>
     <cellStyle name="Fixed" xfId="3"/>
@@ -529,6 +598,7 @@
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 4" xfId="7"/>
     <cellStyle name="Normal 5" xfId="10"/>
+    <cellStyle name="Normal 6" xfId="11"/>
     <cellStyle name="Percent 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -868,45 +938,51 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="29.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="11.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="F2" s="7">
-        <v>195</v>
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -916,64 +992,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -984,53 +1002,53 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>3.14</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>2.8</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>1.99</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>1.82</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>2.17</v>
       </c>
     </row>
@@ -1040,172 +1058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1215,79 +1073,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.9203814417186024E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5.9203814417186024E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.7682034481554495E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.7682034481554495E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3915414076333261E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.3915414076333261E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.1764332490504957E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.1764332490504957E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.7372540605088114E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.7372540605088114E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.14568583822174275</v>
       </c>
     </row>
@@ -1297,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1311,21 +1169,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2">
@@ -1333,10 +1191,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3">
@@ -1344,10 +1202,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4">
@@ -1355,10 +1213,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5">
@@ -1366,10 +1224,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6">
@@ -1377,10 +1235,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7">
@@ -1391,4 +1249,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="65" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="61.5546875" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="18">
+        <v>29616</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2519451</v>
+      </c>
+      <c r="D10" s="8">
+        <v>277</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2448</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>